--- a/biology/Biologie cellulaire et moléculaire/Vésiculémie/Vésiculémie.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Vésiculémie/Vésiculémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9sicul%C3%A9mie</t>
+          <t>Vésiculémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vésiculémie[1] désigne la concentration de vésicules extracellulaires (i.e. microvésicules et exosomes) dans le plasma sanguin. Ce terme a été introduit en 2020 par Quentin Sabbagh et l’équipe SOAP (Signaling in Oncogenesis, Angiogenesis and Permeability)[2],[3],[4], dirigée par le Docteur Julie Gavard et appartenant au Centre de Recherche en Cancérologie et Immunologie Nantes-Angers, au cours de leurs travaux sur la caractérisation des vésicules extracellulaires plasmatiques chez des patients atteints de glioblastome.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vésiculémie désigne la concentration de vésicules extracellulaires (i.e. microvésicules et exosomes) dans le plasma sanguin. Ce terme a été introduit en 2020 par Quentin Sabbagh et l’équipe SOAP (Signaling in Oncogenesis, Angiogenesis and Permeability) dirigée par le Docteur Julie Gavard et appartenant au Centre de Recherche en Cancérologie et Immunologie Nantes-Angers, au cours de leurs travaux sur la caractérisation des vésicules extracellulaires plasmatiques chez des patients atteints de glioblastome.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9sicul%C3%A9mie</t>
+          <t>Vésiculémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,122 @@
           <t>Méthodes de mesure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les dernières recommandations de la Société Internationale des Vésicules Extracellulaires (ISEV)[5], la vésiculémie doit être estimée par, au minimum, deux techniques parmi celles décrites ci-dessous.
-Microscopie
-Les deux techniques microscopiques actuellement recommandées pour la caractérisation des vésicules extracellulaires sont la microscopie électronique et la microscopie à force atomique. Les résultats obtenus doivent s'accompagner d'une image en "champ large" et en "champ rapproché" afin de s'assurer de la pureté de la préparation.
-Analyse en particule unique
-La TRPS (Tunable Resistive Particule Sensing) ainsi que la SPT (Single Particle Tracking) sont les deux principales méthodes pour caractériser les vésicules extracellulaires à l'échelle de la particule unique. Basées sur des principes physiques différents et complémentaires, elles représentent aujourd'hui les deux techniques les plus utilisées afin d'estimer la concentration et la taille des vésicules extracellulaires.
-ELISA
-Des kits ELISA spécifiques de marqueurs de vésicules extracellulaires, tels que les tétraspanines CD63 ou CD9, ont été récemment développés afin de déterminer la concentration en vésicules extracellulaires d'une préparation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les dernières recommandations de la Société Internationale des Vésicules Extracellulaires (ISEV), la vésiculémie doit être estimée par, au minimum, deux techniques parmi celles décrites ci-dessous.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vésiculémie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9sicul%C3%A9mie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Méthodes de mesure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Microscopie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux techniques microscopiques actuellement recommandées pour la caractérisation des vésicules extracellulaires sont la microscopie électronique et la microscopie à force atomique. Les résultats obtenus doivent s'accompagner d'une image en "champ large" et en "champ rapproché" afin de s'assurer de la pureté de la préparation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vésiculémie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9sicul%C3%A9mie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Méthodes de mesure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Analyse en particule unique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La TRPS (Tunable Resistive Particule Sensing) ainsi que la SPT (Single Particle Tracking) sont les deux principales méthodes pour caractériser les vésicules extracellulaires à l'échelle de la particule unique. Basées sur des principes physiques différents et complémentaires, elles représentent aujourd'hui les deux techniques les plus utilisées afin d'estimer la concentration et la taille des vésicules extracellulaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vésiculémie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9sicul%C3%A9mie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Méthodes de mesure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ELISA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des kits ELISA spécifiques de marqueurs de vésicules extracellulaires, tels que les tétraspanines CD63 ou CD9, ont été récemment développés afin de déterminer la concentration en vésicules extracellulaires d'une préparation.
 </t>
         </is>
       </c>
